--- a/数据整理/stocks/A股/深证主板/002432-九安医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002432-九安医疗.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,445 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>3.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002432-九安医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002432-九安医疗.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,205 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012428</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏核心制造混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9400</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012429</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏核心制造混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6115</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013028</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒越品质生活混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0574</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>162510</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国联安双力中小板综指 (LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1096,64 +956,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.61</v>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002432-九安医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002432-九安医疗.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>3.61</v>
       </c>
     </row>
@@ -515,6 +532,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新兴科技100ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -950,7 +1213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002432-九安医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002432-九安医疗.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.42</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.61</v>
       </c>
     </row>
@@ -532,6 +549,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实新兴科技100ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516790</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -777,7 +1572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1213,7 +2008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
